--- a/pred_ohlcv/54_21/2020-01-16 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BSV ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>21270.57705451</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>18334.48752246</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>16346.82033112</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14362.79875191</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>21076.92626389</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>19200.81397379</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20174.5847974</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>21011.44554986</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>20353.71214768</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>21596.63208983</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>22123.46346839</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>21331.87848379</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>22282.27985988</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>22809.04535988</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>21032.79724318</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>21875.73059416</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>28585.01527848</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>28138.39784266</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>28138.39784266</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>27145.28254266</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>30740.65620022999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>29813.98404368999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>29841.63938385999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>30621.37487651999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>30359.39410158999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>30549.28178922999</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>29985.49614878999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>30636.34252807999</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>30300.24082807999</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>29833.38421172999</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>29552.32131093999</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>29705.21767274999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>29798.99227274999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>30140.11953249999</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>30325.68943907999</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>30283.96463907999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>30464.96653907999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>30783.43455295999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>30988.93595661999</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>30796.71416959999</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>30920.17226959999</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>30896.22016959999</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>30812.68516959999</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>30698.95426959999</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>30772.57872575999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>30836.31502575999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>30647.17572575999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>30676.37782575999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>30629.28170299999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>30629.28170299999</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>30629.28170299999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>30533.45370299999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>30630.64150299999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>30630.64150299999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>30692.17640299999</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>30654.00750299999</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>30696.97090299999</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>30637.57000299999</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>30771.74770299999</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>30705.66480299999</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>29331.88580299999</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>29331.88580299999</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>29813.68270299999</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>29211.14436496999</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>30103.48565389999</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>29899.47298101999</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>30516.37301029999</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>30595.20851029999</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>30453.71226596999</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>30623.94766596999</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>30524.61136596999</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>30492.22796597</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>31962.78465287999</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>32455.12909684</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>32593.08399684</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>32161.20786048</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>34874.97778754</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>35374.90949658999</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>35093.09156313999</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>35585.70925927999</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>36288.54472318999</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>35935.64702688999</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>35717.26922741999</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>36044.17222741999</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>35838.36842741998</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>35673.17902773999</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>35713.29012773999</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>35680.21182773999</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>35192.49682773999</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>35239.65432773999</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>35028.88750780999</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>35366.02318005999</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>35250.74787982999</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>35332.91427982999</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>35351.67197982999</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>35497.81709059999</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>35585.24404384998</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>35658.45079059999</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>35551.03553734998</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>35505.88188130999</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>35505.88188130999</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>35505.88188130999</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>35505.88188130999</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>35243.50828130999</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>35195.09068130999</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>35414.86668130998</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>35348.02788130999</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>35411.15328130998</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>35393.75458281999</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>35250.97108307999</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>35216.93988307999</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>35272.32058458999</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>35350.48738458999</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>35350.48738458999</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>35351.54928458999</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>35237.96043661999</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>34983.89043661999</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>35664.23783661999</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>35469.91003661999</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>35375.95923864999</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>35316.90223864999</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>35418.97743864999</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>35252.03303864999</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>35253.38333864999</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>35624.06105402999</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>35478.31245402999</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>35670.61278685999</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>35625.91308685999</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>35660.09478685999</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>35519.87208685999</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>35499.38388685999</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>35630.67858685999</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>35721.54468685999</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>35634.74238685999</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>35637.43968685999</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>35614.72338685999</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>35495.34728685999</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>35437.71628685998</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>35311.99858685998</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>35311.99858685998</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>35332.10348685998</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>35272.00918685998</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>35272.00918685998</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>35295.83828685999</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>35295.83828685999</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>35373.08588685999</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>35366.36658685999</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>35369.43868685999</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>35369.43868685999</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>35369.43868685999</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>35379.42817874999</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>35376.85207850999</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>35254.35777850999</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>35416.36607850999</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>35349.37617850999</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>35360.35877851</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>35306.73187850999</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>35311.47277988999</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>35325.70817850999</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>35363.99997850999</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>35263.22747850999</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>35267.96105820999</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>35266.96105820999</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>35256.18735820999</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>35242.87795821</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>35124.89235821</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>35194.76035821</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>35194.76035821</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>35152.53585821</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>35219.27965796</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>35148.69295796</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>35048.45705796</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>34955.44115796001</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>34943.46408514</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>35038.77741232001</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>35047.69431232</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>34970.03971232</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>34978.43851232</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>34868.47293551001</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>34928.39163551001</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>34962.27541162001</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>34911.01765043001</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>34881.81075043001</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>34881.81075043001</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>34980.77585043001</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>34862.49085043001</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>34734.63935043001</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>34593.48885043001</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>34649.37645043001</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>34753.34405457001</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>34722.96185457001</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>34764.89225457001</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>34718.73115457001</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>34722.54835457001</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>34831.87465457001</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>34877.73755457001</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>34877.73755457001</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>34812.48585457001</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>34767.37415457001</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>34736.88685457001</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>34834.07135457001</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>34944.71392721001</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>34943.86718101001</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>35056.58428212001</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>34962.51678212002</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>34994.74285083001</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>35043.36485083002</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>34969.43925083002</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>34984.20181841002</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>35043.02515083001</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>35043.02515083001</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>35049.81665083001</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>35033.50285083001</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>35033.50285083001</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>34990.14055083001</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>34856.31585083001</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>34878.80835083001</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>34930.98655083001</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>35003.11435083002</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>35035.86335083002</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>34949.65796940002</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>34978.40586940002</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>34978.40586940002</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>35005.07036940002</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>35005.07036940002</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>35328.19778797002</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>35503.37676865002</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>35448.30626920002</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>35448.30626920002</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>35478.24836920002</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>35641.26631490002</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>35835.36049575002</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>35940.17716298002</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>35884.16777889002</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>35955.64189480002</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>35943.84809480002</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>36000.54239480002</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>36844.88481006002</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>36844.88481006002</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>37188.30323125002</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>37387.16405347002</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>37627.79475265002</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>37820.45565243002</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>38371.84085243002</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>38757.42995734002</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>39243.74465243002</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>38427.93577805001</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>38181.74197847001</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>38577.27032752001</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>39049.05137847001</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>39395.82563481001</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>39864.59549654001</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>40749.27008793001</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>40640.35342251001</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>41256.96197671001</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>41649.34760054001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>42389.93077874001</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>43042.04782518001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>43793.65928885001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>42728.75562466001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>43303.90783</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>44001.19951073</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>45082.63938437001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>44393.67845202001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>45187.46802415001</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>46203.06384794001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>45468.24295040001</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>44608.95656495001</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>43688.50472275001</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>49444.07502769001</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>51702.12601909001</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>50030.58944692001</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>50623.37552013001</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>52008.34157476001</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>50961.54398343001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>51798.60788488</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>50702.09423841001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>51091.31579373001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>51696.30301887001</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>52287.30485614001</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>51582.30340954001</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>49935.74663746</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>50906.01344229</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>51511.98564884</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>51066.31121211001</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>49829.25703470001</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>51621.80318581001</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>52058.26835725002</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>51686.35946961002</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>51250.21657279002</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>51445.31925140003</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>51237.21136647002</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>51024.90835758003</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BSV ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>21270.57705451</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>18334.48752246</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>16346.82033112</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14362.79875191</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>21076.92626389</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>19200.81397379</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>20280.25451619</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>19514.6823054</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>19958.36400441</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>21677.94700758</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>21011.44554986</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>20353.71214768</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>20427.14024681</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>21596.63208983</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>22123.46346839</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>21331.87848379</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>22282.27985988</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>22809.04535988</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>21032.79724318</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>21875.73059416</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>28459.48154349999</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>29008.7859435</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>30024.83979225</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>31171.77807284</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>30404.99517490999</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>30323.98407490999</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>30399.62167490999</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>30042.74614368999</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>29813.98404368999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>29663.59564368999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>30127.51693558999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>30492.82327638999</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>30308.80577638999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>30560.45447651999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>30269.82016133999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>30741.02512527999</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>30471.97092807999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>30013.94002807999</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>30210.26322807999</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>30330.95138302999</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>30518.93278543999</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>30686.58323387999</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>30472.58323387999</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>30649.07533672999</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>30535.23751172999</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>28535.45501172999</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>29777.91033702999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>29876.87787274999</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>29520.70686496999</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>29091.72666496999</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>29250.20806496999</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>29482.14406496999</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>29293.58266496999</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>29326.90666496999</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>29542.94829219999</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>29980.28799219999</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>29686.78755389999</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>30056.87749179999</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>29933.45410257999</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>29757.82950257999</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>29670.88520257999</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>29412.83261364999</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>29743.11241364999</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>30090.04081423999</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>30244.32816581999</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>30666.46586581999</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>30267.72083044999</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>30570.18308167999</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>30769.27314568999</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>30616.92841029999</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>30673.74981029999</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>30582.86071029999</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>30520.47731029999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>30340.72221029999</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>30459.37481029999</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>30402.02681029999</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>30407.61420923999</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>30386.83680923999</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>30374.64120923999</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>30398.26470923999</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>30330.19900923999</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>30385.90970923999</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>30593.67010923999</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>30497.23776596999</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>30492.22796597</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>30429.37606596999</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>30603.78416597</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>30508.62956596999</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>30561.51376596999</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>30622.55106596999</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>30759.65186596999</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>30728.37716596999</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>30732.29230308999</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>30872.72150121999</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>31237.64910121999</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>31391.47616369999</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>31434.07416369999</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>31597.42226369999</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>31722.93806369999</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>32213.66609804999</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>40640.35342251001</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>41256.96197671001</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>41649.34760054001</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>42389.93077874001</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>43042.04782518001</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>43793.65928885001</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>42728.75562466001</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>43303.90783</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>44001.19951073</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>45082.63938437001</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>44393.67845202001</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>45187.46802415001</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>46203.06384794001</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>45468.24295040001</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>44608.95656495001</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>43688.50472275001</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>45987.62122057001</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>47195.39265720001</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>47816.20774078001</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>49704.07214894001</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>51060.80883196001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>49444.07502769001</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>50455.75142449001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>51702.12601909001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>50030.58944692001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>50623.37552013001</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>52008.34157476001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>50961.54398343001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>51798.60788488</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>50702.09423841001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>51091.31579373001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>51696.30301887001</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>52287.30485614001</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>51582.30340954001</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>49935.74663746</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>50906.01344229</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>51511.98564884</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>51066.31121211001</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>49829.25703470001</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>51621.80318581001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>50832.51198226001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>51516.32143952001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>51881.88864071001</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>52541.40317159001</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>52180.87501527002</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>51857.31448715002</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>52337.18476007002</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>52058.26835725002</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>51686.35946961002</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>51250.21657279002</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>51710.99963260002</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>52198.37852341002</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>51751.44385665002</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>51445.31925140003</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>51237.21136647002</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>51024.90835758003</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>51239.26007861002</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>51088.67085033003</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>51368.09308107002</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>50784.67305316003</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>50784.67305316003</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>51003.31559767003</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>50741.70334962003</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>50553.88392844003</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
